--- a/DSC 530 - Data Exploration and Analysis/Project/Data/Birth_Natality_Data_2016.xlsx
+++ b/DSC 530 - Data Exploration and Analysis/Project/Data/Birth_Natality_Data_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/BU/DSC 530 - Data Exploration and Analysis/Patrick.Weatherford-DSC530/Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/Bellevue_University/DSC 530 - Data Exploration and Analysis/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{53223F2A-EC78-4ED6-88DC-96641539B4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{53223F2A-EC78-4ED6-88DC-96641539B4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79DB69F2-B521-401E-9213-C397BC035FFF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NatalityData" sheetId="3" r:id="rId1"/>
@@ -22,16 +22,27 @@
     <sheet name="PrematureBirths" sheetId="7" r:id="rId7"/>
     <sheet name="Reference" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId9"/>
-    <pivotCache cacheId="15" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="97">
   <si>
     <t>Age of Father</t>
   </si>
@@ -327,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,72 +926,9 @@
   <dxfs count="28">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1089,9 +1037,81 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1100,6 +1120,22 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1125,31 +1161,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1164,7 +1175,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Patrick Weatherford" refreshedDate="44533.621174074076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="516">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Patrick Weatherford" refreshedDate="44533.621174074076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="516" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1256,7 +1267,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Patrick Weatherford" refreshedDate="44533.637864699071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="413">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Patrick Weatherford" refreshedDate="44533.637864699071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="413" xr:uid="{00000000-000A-0000-FFFF-FFFF0F000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table5"/>
   </cacheSource>
@@ -6929,7 +6940,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
   <location ref="A1:L53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7208,25 +7219,25 @@
     <dataField name="Sum of Births" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="20">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="11">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -7284,7 +7295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7293,17 +7304,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -7361,7 +7372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7384,7 +7395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
   <location ref="A1:J53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7666,30 +7677,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="NatalityData" displayName="NatalityData" ref="A1:K52" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="27">
-  <autoFilter ref="A1:K52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="NatalityData" displayName="NatalityData" ref="A1:K51" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+  <autoFilter ref="A1:K51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="State" dataDxfId="26"/>
-    <tableColumn id="19" name="Total Births" dataDxfId="8"/>
-    <tableColumn id="11" name="Father Age Unknown" dataDxfId="25"/>
-    <tableColumn id="15" name="Father Age &lt; 40" dataDxfId="22"/>
-    <tableColumn id="16" name="Father Age &gt;= 40" dataDxfId="21"/>
-    <tableColumn id="18" name="Father Age &gt;= 40 Rate" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="State" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Total Births" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Father Age Unknown" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Father Age &lt; 40" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Father Age &gt;= 40" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Father Age &gt;= 40 Rate" dataDxfId="19">
       <calculatedColumnFormula>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Mother Age &lt; 40" dataDxfId="3">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Mother Age &lt; 40" dataDxfId="18">
       <calculatedColumnFormula>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Mother Age &gt;= 40" dataDxfId="4">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mother Age &gt;= 40" dataDxfId="17">
       <calculatedColumnFormula>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Mother Age &gt;= 40 Rate" dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Mother Age &gt;= 40 Rate" dataDxfId="16">
       <calculatedColumnFormula>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Premature Births" dataDxfId="1">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Premature Births" dataDxfId="15">
       <calculatedColumnFormula>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Premature Birth Rate" dataDxfId="0">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Premature Birth Rate" dataDxfId="14">
       <calculatedColumnFormula>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7698,73 +7709,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B53" totalsRowShown="0">
-  <autoFilter ref="A1:B53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:B53" totalsRowShown="0">
+  <autoFilter ref="A1:B53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Births"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="State"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Births"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D517" totalsRowShown="0">
-  <autoFilter ref="A1:D517"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:D517" totalsRowShown="0">
+  <autoFilter ref="A1:D517" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Age of Father"/>
-    <tableColumn id="3" name="Age of Father Code"/>
-    <tableColumn id="4" name="Births"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="State"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Age of Father"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Age of Father Code"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Births"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D414" totalsRowShown="0">
-  <autoFilter ref="A1:D414"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:D414" totalsRowShown="0">
+  <autoFilter ref="A1:D414" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="3" name="Age of Mother"/>
-    <tableColumn id="4" name="Age of Mother Code"/>
-    <tableColumn id="5" name="Births"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="State"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Age of Mother"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Age of Mother Code"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Births"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="L1:W52" totalsRowShown="0">
-  <autoFilter ref="L1:W52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="L1:W52" totalsRowShown="0">
+  <autoFilter ref="L1:W52" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="12" name="Mother Age &lt; 40" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="State"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Mother Age &lt; 40" dataDxfId="1">
       <calculatedColumnFormula>SUM(Table6[[#This Row],[15-19 years]],Table6[[#This Row],[20-24 years]],Table6[[#This Row],[25-29 years]],Table6[[#This Row],[30-34 years]],Table6[[#This Row],[35-39 years]],Table6[[#This Row],[Under 15 years]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Mother Age &gt;= 40" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Mother Age &gt;= 40" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table6[[#This Row],[40-44 years]],Table6[[#This Row],[45-49 years]],Table6[[#This Row],[50 years and over]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="15-19 years"/>
-    <tableColumn id="3" name="20-24 years"/>
-    <tableColumn id="4" name="25-29 years"/>
-    <tableColumn id="5" name="30-34 years"/>
-    <tableColumn id="6" name="35-39 years"/>
-    <tableColumn id="7" name="40-44 years"/>
-    <tableColumn id="8" name="45-49 years"/>
-    <tableColumn id="9" name="50 years and over"/>
-    <tableColumn id="10" name="Under 15 years"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="15-19 years"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="20-24 years"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="25-29 years"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="30-34 years"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="35-39 years"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="40-44 years"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="45-49 years"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="50 years and over"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Under 15 years"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PrematureTable" displayName="PrematureTable" ref="A1:B53" totalsRowShown="0">
-  <autoFilter ref="A1:B53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="PrematureTable" displayName="PrematureTable" ref="A1:B53" totalsRowShown="0">
+  <autoFilter ref="A1:B53" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Births"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Births"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8066,11 +8077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8453,1771 +8464,1730 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
-        <v>9858</v>
+        <v>225022</v>
       </c>
       <c r="C10" s="6">
-        <v>2152</v>
+        <v>28173</v>
       </c>
       <c r="D10" s="6">
-        <v>6329</v>
+        <v>169528</v>
       </c>
       <c r="E10" s="6">
-        <v>1376</v>
+        <v>27316</v>
       </c>
       <c r="F10" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>13.96</v>
+        <v>12.14</v>
       </c>
       <c r="G10" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>9340</v>
+        <v>217343</v>
       </c>
       <c r="H10" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>503</v>
+        <v>7679</v>
       </c>
       <c r="I10" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>5.0999999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="J10" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1059</v>
+        <v>22822</v>
       </c>
       <c r="K10" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.74</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
-        <v>225022</v>
+        <v>130042</v>
       </c>
       <c r="C11" s="6">
-        <v>28173</v>
+        <v>18525</v>
       </c>
       <c r="D11" s="6">
-        <v>169528</v>
+        <v>98862</v>
       </c>
       <c r="E11" s="6">
-        <v>27316</v>
+        <v>12651</v>
       </c>
       <c r="F11" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>12.14</v>
+        <v>9.73</v>
       </c>
       <c r="G11" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>217343</v>
+        <v>126330</v>
       </c>
       <c r="H11" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>7679</v>
+        <v>3712</v>
       </c>
       <c r="I11" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.41</v>
+        <v>2.85</v>
       </c>
       <c r="J11" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>22822</v>
+        <v>14577</v>
       </c>
       <c r="K11" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.14</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5">
-        <v>130042</v>
+        <v>18059</v>
       </c>
       <c r="C12" s="6">
-        <v>18525</v>
+        <v>1748</v>
       </c>
       <c r="D12" s="6">
-        <v>98862</v>
+        <v>14092</v>
       </c>
       <c r="E12" s="6">
-        <v>12651</v>
+        <v>2219</v>
       </c>
       <c r="F12" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.73</v>
+        <v>12.29</v>
       </c>
       <c r="G12" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>126330</v>
+        <v>17309</v>
       </c>
       <c r="H12" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3712</v>
+        <v>737</v>
       </c>
       <c r="I12" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.85</v>
+        <v>4.08</v>
       </c>
       <c r="J12" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>14577</v>
+        <v>1904</v>
       </c>
       <c r="K12" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.21</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5">
-        <v>18059</v>
+        <v>22482</v>
       </c>
       <c r="C13" s="6">
-        <v>1748</v>
+        <v>1964</v>
       </c>
       <c r="D13" s="6">
-        <v>14092</v>
+        <v>18790</v>
       </c>
       <c r="E13" s="6">
-        <v>2219</v>
+        <v>1727</v>
       </c>
       <c r="F13" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>12.29</v>
+        <v>7.68</v>
       </c>
       <c r="G13" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>17309</v>
+        <v>21951</v>
       </c>
       <c r="H13" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>737</v>
+        <v>524</v>
       </c>
       <c r="I13" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>4.08</v>
+        <v>2.33</v>
       </c>
       <c r="J13" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1904</v>
+        <v>2008</v>
       </c>
       <c r="K13" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.54</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5">
-        <v>22482</v>
+        <v>154445</v>
       </c>
       <c r="C14" s="6">
-        <v>1964</v>
+        <v>18533</v>
       </c>
       <c r="D14" s="6">
-        <v>18790</v>
+        <v>120271</v>
       </c>
       <c r="E14" s="6">
-        <v>1727</v>
+        <v>15641</v>
       </c>
       <c r="F14" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.68</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G14" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>21951</v>
+        <v>149369</v>
       </c>
       <c r="H14" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>524</v>
+        <v>5076</v>
       </c>
       <c r="I14" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="J14" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>2008</v>
+        <v>15952</v>
       </c>
       <c r="K14" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.93</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5">
-        <v>154445</v>
+        <v>83091</v>
       </c>
       <c r="C15" s="6">
-        <v>18533</v>
+        <v>9278</v>
       </c>
       <c r="D15" s="6">
-        <v>120271</v>
+        <v>67682</v>
       </c>
       <c r="E15" s="6">
-        <v>15641</v>
+        <v>6122</v>
       </c>
       <c r="F15" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.130000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="G15" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>149369</v>
+        <v>81382</v>
       </c>
       <c r="H15" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>5076</v>
+        <v>1709</v>
       </c>
       <c r="I15" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.29</v>
+        <v>2.06</v>
       </c>
       <c r="J15" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>15952</v>
+        <v>8287</v>
       </c>
       <c r="K15" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.33</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5">
-        <v>83091</v>
+        <v>39403</v>
       </c>
       <c r="C16" s="6">
-        <v>9278</v>
+        <v>6262</v>
       </c>
       <c r="D16" s="6">
-        <v>67682</v>
+        <v>30553</v>
       </c>
       <c r="E16" s="6">
-        <v>6122</v>
+        <v>2588</v>
       </c>
       <c r="F16" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.37</v>
+        <v>6.57</v>
       </c>
       <c r="G16" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>81382</v>
+        <v>38652</v>
       </c>
       <c r="H16" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1709</v>
+        <v>747</v>
       </c>
       <c r="I16" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="J16" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>8287</v>
+        <v>3652</v>
       </c>
       <c r="K16" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.9700000000000006</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5">
-        <v>39403</v>
+        <v>38053</v>
       </c>
       <c r="C17" s="6">
-        <v>6262</v>
+        <v>3512</v>
       </c>
       <c r="D17" s="6">
-        <v>30553</v>
+        <v>31786</v>
       </c>
       <c r="E17" s="6">
-        <v>2588</v>
+        <v>2752</v>
       </c>
       <c r="F17" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.57</v>
+        <v>7.23</v>
       </c>
       <c r="G17" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>38652</v>
+        <v>37296</v>
       </c>
       <c r="H17" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="I17" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J17" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>3652</v>
+        <v>3457</v>
       </c>
       <c r="K17" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.27</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5">
-        <v>38053</v>
+        <v>55449</v>
       </c>
       <c r="C18" s="6">
-        <v>3512</v>
+        <v>9460</v>
       </c>
       <c r="D18" s="6">
-        <v>31786</v>
+        <v>42124</v>
       </c>
       <c r="E18" s="6">
-        <v>2752</v>
+        <v>3863</v>
       </c>
       <c r="F18" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.23</v>
+        <v>6.97</v>
       </c>
       <c r="G18" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>37296</v>
+        <v>54486</v>
       </c>
       <c r="H18" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>754</v>
+        <v>959</v>
       </c>
       <c r="I18" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="J18" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>3457</v>
+        <v>6322</v>
       </c>
       <c r="K18" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.08</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5">
-        <v>55449</v>
+        <v>63178</v>
       </c>
       <c r="C19" s="6">
-        <v>9460</v>
+        <v>9048</v>
       </c>
       <c r="D19" s="6">
-        <v>42124</v>
+        <v>49482</v>
       </c>
       <c r="E19" s="6">
-        <v>3863</v>
+        <v>4647</v>
       </c>
       <c r="F19" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.97</v>
+        <v>7.36</v>
       </c>
       <c r="G19" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>54486</v>
+        <v>62029</v>
       </c>
       <c r="H19" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>959</v>
+        <v>1144</v>
       </c>
       <c r="I19" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="J19" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>6322</v>
+        <v>7982</v>
       </c>
       <c r="K19" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.4</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5">
-        <v>63178</v>
+        <v>12705</v>
       </c>
       <c r="C20" s="6">
-        <v>9048</v>
+        <v>1156</v>
       </c>
       <c r="D20" s="6">
-        <v>49482</v>
+        <v>10366</v>
       </c>
       <c r="E20" s="6">
-        <v>4647</v>
+        <v>1183</v>
       </c>
       <c r="F20" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.36</v>
+        <v>9.31</v>
       </c>
       <c r="G20" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>62029</v>
+        <v>12373</v>
       </c>
       <c r="H20" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1144</v>
+        <v>325</v>
       </c>
       <c r="I20" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.81</v>
+        <v>2.56</v>
       </c>
       <c r="J20" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>7982</v>
+        <v>1089</v>
       </c>
       <c r="K20" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>12.63</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5">
-        <v>12705</v>
+        <v>73136</v>
       </c>
       <c r="C21" s="6">
-        <v>1156</v>
+        <v>7846</v>
       </c>
       <c r="D21" s="6">
-        <v>10366</v>
+        <v>55995</v>
       </c>
       <c r="E21" s="6">
-        <v>1183</v>
+        <v>9295</v>
       </c>
       <c r="F21" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.31</v>
+        <v>12.71</v>
       </c>
       <c r="G21" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>12373</v>
+        <v>70221</v>
       </c>
       <c r="H21" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>325</v>
+        <v>2915</v>
       </c>
       <c r="I21" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.56</v>
+        <v>3.99</v>
       </c>
       <c r="J21" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1089</v>
+        <v>7408</v>
       </c>
       <c r="K21" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.57</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5">
-        <v>73136</v>
+        <v>71317</v>
       </c>
       <c r="C22" s="6">
-        <v>7846</v>
+        <v>5264</v>
       </c>
       <c r="D22" s="6">
-        <v>55995</v>
+        <v>55998</v>
       </c>
       <c r="E22" s="6">
-        <v>9295</v>
+        <v>10053</v>
       </c>
       <c r="F22" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>12.71</v>
+        <v>14.1</v>
       </c>
       <c r="G22" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>70221</v>
+        <v>67955</v>
       </c>
       <c r="H22" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>2915</v>
+        <v>3362</v>
       </c>
       <c r="I22" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.99</v>
+        <v>4.71</v>
       </c>
       <c r="J22" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>7408</v>
+        <v>6168</v>
       </c>
       <c r="K22" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.130000000000001</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5">
-        <v>71317</v>
+        <v>113315</v>
       </c>
       <c r="C23" s="6">
-        <v>5264</v>
+        <v>14783</v>
       </c>
       <c r="D23" s="6">
-        <v>55998</v>
+        <v>88635</v>
       </c>
       <c r="E23" s="6">
-        <v>10053</v>
+        <v>9897</v>
       </c>
       <c r="F23" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>14.1</v>
+        <v>8.73</v>
       </c>
       <c r="G23" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>67955</v>
+        <v>110599</v>
       </c>
       <c r="H23" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3362</v>
+        <v>2716</v>
       </c>
       <c r="I23" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>4.71</v>
+        <v>2.4</v>
       </c>
       <c r="J23" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>6168</v>
+        <v>11490</v>
       </c>
       <c r="K23" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.65</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5">
-        <v>113315</v>
+        <v>69749</v>
       </c>
       <c r="C24" s="6">
-        <v>14783</v>
+        <v>5190</v>
       </c>
       <c r="D24" s="6">
-        <v>88635</v>
+        <v>57795</v>
       </c>
       <c r="E24" s="6">
-        <v>9897</v>
+        <v>6761</v>
       </c>
       <c r="F24" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.73</v>
+        <v>9.69</v>
       </c>
       <c r="G24" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>110599</v>
+        <v>67823</v>
       </c>
       <c r="H24" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>2716</v>
+        <v>1926</v>
       </c>
       <c r="I24" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="J24" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>11490</v>
+        <v>6121</v>
       </c>
       <c r="K24" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.14</v>
+        <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5">
-        <v>69749</v>
+        <v>37928</v>
       </c>
       <c r="C25" s="6">
-        <v>5190</v>
+        <v>6519</v>
       </c>
       <c r="D25" s="6">
-        <v>57795</v>
+        <v>28891</v>
       </c>
       <c r="E25" s="6">
-        <v>6761</v>
+        <v>2515</v>
       </c>
       <c r="F25" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.69</v>
+        <v>6.63</v>
       </c>
       <c r="G25" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>67823</v>
+        <v>37413</v>
       </c>
       <c r="H25" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1926</v>
+        <v>515</v>
       </c>
       <c r="I25" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.76</v>
+        <v>1.36</v>
       </c>
       <c r="J25" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>6121</v>
+        <v>5174</v>
       </c>
       <c r="K25" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.7799999999999994</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5">
-        <v>37928</v>
+        <v>74705</v>
       </c>
       <c r="C26" s="6">
-        <v>6519</v>
+        <v>11761</v>
       </c>
       <c r="D26" s="6">
-        <v>28891</v>
+        <v>57676</v>
       </c>
       <c r="E26" s="6">
-        <v>2515</v>
+        <v>5264</v>
       </c>
       <c r="F26" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.63</v>
+        <v>7.05</v>
       </c>
       <c r="G26" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>37413</v>
+        <v>73201</v>
       </c>
       <c r="H26" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>515</v>
+        <v>1500</v>
       </c>
       <c r="I26" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.36</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J26" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>5174</v>
+        <v>7584</v>
       </c>
       <c r="K26" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>13.64</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5">
-        <v>74705</v>
+        <v>12282</v>
       </c>
       <c r="C27" s="6">
-        <v>11761</v>
+        <v>1172</v>
       </c>
       <c r="D27" s="6">
-        <v>57676</v>
+        <v>10128</v>
       </c>
       <c r="E27" s="6">
-        <v>5264</v>
+        <v>982</v>
       </c>
       <c r="F27" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.05</v>
+        <v>8</v>
       </c>
       <c r="G27" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>73201</v>
+        <v>11971</v>
       </c>
       <c r="H27" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1500</v>
+        <v>302</v>
       </c>
       <c r="I27" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.0099999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="J27" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>7584</v>
+        <v>1074</v>
       </c>
       <c r="K27" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.15</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5">
-        <v>12282</v>
+        <v>26589</v>
       </c>
       <c r="C28" s="6">
-        <v>1172</v>
+        <v>2657</v>
       </c>
       <c r="D28" s="6">
-        <v>10128</v>
+        <v>21929</v>
       </c>
       <c r="E28" s="6">
-        <v>982</v>
+        <v>2001</v>
       </c>
       <c r="F28" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8</v>
+        <v>7.53</v>
       </c>
       <c r="G28" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>11971</v>
+        <v>26003</v>
       </c>
       <c r="H28" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>302</v>
+        <v>585</v>
       </c>
       <c r="I28" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.46</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J28" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1074</v>
+        <v>2554</v>
       </c>
       <c r="K28" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.74</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5">
-        <v>26589</v>
+        <v>36260</v>
       </c>
       <c r="C29" s="6">
-        <v>2657</v>
+        <v>4584</v>
       </c>
       <c r="D29" s="6">
-        <v>21929</v>
+        <v>27760</v>
       </c>
       <c r="E29" s="6">
-        <v>2001</v>
+        <v>3916</v>
       </c>
       <c r="F29" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.53</v>
+        <v>10.8</v>
       </c>
       <c r="G29" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>26003</v>
+        <v>35100</v>
       </c>
       <c r="H29" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>585</v>
+        <v>1155</v>
       </c>
       <c r="I29" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.2000000000000002</v>
+        <v>3.19</v>
       </c>
       <c r="J29" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>2554</v>
+        <v>3758</v>
       </c>
       <c r="K29" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.61</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5">
-        <v>36260</v>
+        <v>12267</v>
       </c>
       <c r="C30" s="6">
-        <v>4584</v>
+        <v>715</v>
       </c>
       <c r="D30" s="6">
-        <v>27760</v>
+        <v>10274</v>
       </c>
       <c r="E30" s="6">
-        <v>3916</v>
+        <v>1278</v>
       </c>
       <c r="F30" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.8</v>
+        <v>10.42</v>
       </c>
       <c r="G30" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>35100</v>
+        <v>11941</v>
       </c>
       <c r="H30" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1155</v>
+        <v>321</v>
       </c>
       <c r="I30" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="J30" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>3758</v>
+        <v>954</v>
       </c>
       <c r="K30" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.36</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5">
-        <v>12267</v>
+        <v>102647</v>
       </c>
       <c r="C31" s="6">
-        <v>715</v>
+        <v>6820</v>
       </c>
       <c r="D31" s="6">
-        <v>10274</v>
+        <v>81221</v>
       </c>
       <c r="E31" s="6">
-        <v>1278</v>
+        <v>14604</v>
       </c>
       <c r="F31" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.42</v>
+        <v>14.23</v>
       </c>
       <c r="G31" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>11941</v>
+        <v>97953</v>
       </c>
       <c r="H31" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>321</v>
+        <v>4694</v>
       </c>
       <c r="I31" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.62</v>
+        <v>4.57</v>
       </c>
       <c r="J31" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>954</v>
+        <v>10126</v>
       </c>
       <c r="K31" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.78</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5">
-        <v>102647</v>
+        <v>24692</v>
       </c>
       <c r="C32" s="6">
-        <v>6820</v>
+        <v>4200</v>
       </c>
       <c r="D32" s="6">
-        <v>81221</v>
+        <v>18674</v>
       </c>
       <c r="E32" s="6">
-        <v>14604</v>
+        <v>1817</v>
       </c>
       <c r="F32" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>14.23</v>
+        <v>7.36</v>
       </c>
       <c r="G32" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>97953</v>
+        <v>24131</v>
       </c>
       <c r="H32" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>4694</v>
+        <v>560</v>
       </c>
       <c r="I32" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>4.57</v>
+        <v>2.27</v>
       </c>
       <c r="J32" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>10126</v>
+        <v>2464</v>
       </c>
       <c r="K32" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.86</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5">
-        <v>24692</v>
+        <v>234283</v>
       </c>
       <c r="C33" s="6">
-        <v>4200</v>
+        <v>22176</v>
       </c>
       <c r="D33" s="6">
-        <v>18674</v>
+        <v>178795</v>
       </c>
       <c r="E33" s="6">
-        <v>1817</v>
+        <v>33312</v>
       </c>
       <c r="F33" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.36</v>
+        <v>14.22</v>
       </c>
       <c r="G33" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>24131</v>
+        <v>223221</v>
       </c>
       <c r="H33" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>560</v>
+        <v>11062</v>
       </c>
       <c r="I33" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.27</v>
+        <v>4.72</v>
       </c>
       <c r="J33" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>2464</v>
+        <v>20956</v>
       </c>
       <c r="K33" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.98</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5">
-        <v>234283</v>
+        <v>120779</v>
       </c>
       <c r="C34" s="6">
-        <v>22176</v>
+        <v>17664</v>
       </c>
       <c r="D34" s="6">
-        <v>178795</v>
+        <v>92207</v>
       </c>
       <c r="E34" s="6">
-        <v>33312</v>
+        <v>10901</v>
       </c>
       <c r="F34" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>14.22</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="G34" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>223221</v>
+        <v>117513</v>
       </c>
       <c r="H34" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>11062</v>
+        <v>3266</v>
       </c>
       <c r="I34" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>4.72</v>
+        <v>2.7</v>
       </c>
       <c r="J34" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>20956</v>
+        <v>12542</v>
       </c>
       <c r="K34" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.94</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5">
-        <v>120779</v>
+        <v>11383</v>
       </c>
       <c r="C35" s="6">
-        <v>17664</v>
+        <v>956</v>
       </c>
       <c r="D35" s="6">
-        <v>92207</v>
+        <v>9628</v>
       </c>
       <c r="E35" s="6">
-        <v>10901</v>
+        <v>799</v>
       </c>
       <c r="F35" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.0299999999999994</v>
+        <v>7.02</v>
       </c>
       <c r="G35" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>117513</v>
+        <v>11144</v>
       </c>
       <c r="H35" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3266</v>
+        <v>236</v>
       </c>
       <c r="I35" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.7</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J35" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>12542</v>
+        <v>1040</v>
       </c>
       <c r="K35" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.38</v>
+        <v>9.14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5">
-        <v>11383</v>
+        <v>138085</v>
       </c>
       <c r="C36" s="6">
-        <v>956</v>
+        <v>22534</v>
       </c>
       <c r="D36" s="6">
-        <v>9628</v>
+        <v>105151</v>
       </c>
       <c r="E36" s="6">
-        <v>799</v>
+        <v>10393</v>
       </c>
       <c r="F36" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.02</v>
+        <v>7.53</v>
       </c>
       <c r="G36" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>11144</v>
+        <v>135138</v>
       </c>
       <c r="H36" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>236</v>
+        <v>2947</v>
       </c>
       <c r="I36" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.0699999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="J36" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1040</v>
+        <v>14388</v>
       </c>
       <c r="K36" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.14</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5">
-        <v>138085</v>
+        <v>52592</v>
       </c>
       <c r="C37" s="6">
-        <v>22534</v>
+        <v>5958</v>
       </c>
       <c r="D37" s="6">
-        <v>105151</v>
+        <v>42950</v>
       </c>
       <c r="E37" s="6">
-        <v>10393</v>
+        <v>3676</v>
       </c>
       <c r="F37" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.53</v>
+        <v>6.99</v>
       </c>
       <c r="G37" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>135138</v>
+        <v>51687</v>
       </c>
       <c r="H37" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>2947</v>
+        <v>905</v>
       </c>
       <c r="I37" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.13</v>
+        <v>1.72</v>
       </c>
       <c r="J37" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>14388</v>
+        <v>5597</v>
       </c>
       <c r="K37" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.42</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5">
-        <v>52592</v>
+        <v>45535</v>
       </c>
       <c r="C38" s="6">
-        <v>5958</v>
+        <v>3759</v>
       </c>
       <c r="D38" s="6">
-        <v>42950</v>
+        <v>37033</v>
       </c>
       <c r="E38" s="6">
-        <v>3676</v>
+        <v>4740</v>
       </c>
       <c r="F38" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.99</v>
+        <v>10.41</v>
       </c>
       <c r="G38" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>51687</v>
+        <v>43975</v>
       </c>
       <c r="H38" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>905</v>
+        <v>1556</v>
       </c>
       <c r="I38" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.72</v>
+        <v>3.42</v>
       </c>
       <c r="J38" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>5597</v>
+        <v>3620</v>
       </c>
       <c r="K38" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.64</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5">
-        <v>45535</v>
+        <v>139409</v>
       </c>
       <c r="C39" s="6">
-        <v>3759</v>
+        <v>16781</v>
       </c>
       <c r="D39" s="6">
-        <v>37033</v>
+        <v>109858</v>
       </c>
       <c r="E39" s="6">
-        <v>4740</v>
+        <v>12762</v>
       </c>
       <c r="F39" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.41</v>
+        <v>9.15</v>
       </c>
       <c r="G39" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>43975</v>
+        <v>135720</v>
       </c>
       <c r="H39" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1556</v>
+        <v>3689</v>
       </c>
       <c r="I39" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.42</v>
+        <v>2.65</v>
       </c>
       <c r="J39" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>3620</v>
+        <v>12962</v>
       </c>
       <c r="K39" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.95</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5">
-        <v>139409</v>
+        <v>10798</v>
       </c>
       <c r="C40" s="6">
-        <v>16781</v>
+        <v>1153</v>
       </c>
       <c r="D40" s="6">
-        <v>109858</v>
+        <v>8427</v>
       </c>
       <c r="E40" s="6">
-        <v>12762</v>
+        <v>1216</v>
       </c>
       <c r="F40" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.15</v>
+        <v>11.26</v>
       </c>
       <c r="G40" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>135720</v>
+        <v>10446</v>
       </c>
       <c r="H40" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3689</v>
+        <v>345</v>
       </c>
       <c r="I40" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="J40" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>12962</v>
+        <v>1008</v>
       </c>
       <c r="K40" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.3000000000000007</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5">
-        <v>10798</v>
+        <v>57342</v>
       </c>
       <c r="C41" s="6">
-        <v>1153</v>
+        <v>11988</v>
       </c>
       <c r="D41" s="6">
-        <v>8427</v>
+        <v>40893</v>
       </c>
       <c r="E41" s="6">
-        <v>1216</v>
+        <v>4460</v>
       </c>
       <c r="F41" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.26</v>
+        <v>7.78</v>
       </c>
       <c r="G41" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>10446</v>
+        <v>56069</v>
       </c>
       <c r="H41" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>345</v>
+        <v>1269</v>
       </c>
       <c r="I41" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.2</v>
+        <v>2.21</v>
       </c>
       <c r="J41" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1008</v>
+        <v>6395</v>
       </c>
       <c r="K41" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.34</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" s="5">
-        <v>57342</v>
+        <v>12275</v>
       </c>
       <c r="C42" s="6">
-        <v>11988</v>
+        <v>1280</v>
       </c>
       <c r="D42" s="6">
-        <v>40893</v>
+        <v>10159</v>
       </c>
       <c r="E42" s="6">
-        <v>4460</v>
+        <v>836</v>
       </c>
       <c r="F42" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.78</v>
+        <v>6.81</v>
       </c>
       <c r="G42" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>56069</v>
+        <v>12033</v>
       </c>
       <c r="H42" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1269</v>
+        <v>233</v>
       </c>
       <c r="I42" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="J42" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>6395</v>
+        <v>1098</v>
       </c>
       <c r="K42" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.15</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="5">
-        <v>12275</v>
+        <v>80807</v>
       </c>
       <c r="C43" s="6">
-        <v>1280</v>
+        <v>11862</v>
       </c>
       <c r="D43" s="6">
-        <v>10159</v>
+        <v>62643</v>
       </c>
       <c r="E43" s="6">
-        <v>836</v>
+        <v>6298</v>
       </c>
       <c r="F43" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.81</v>
+        <v>7.79</v>
       </c>
       <c r="G43" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>12033</v>
+        <v>79115</v>
       </c>
       <c r="H43" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>233</v>
+        <v>1690</v>
       </c>
       <c r="I43" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="J43" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>1098</v>
+        <v>9085</v>
       </c>
       <c r="K43" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.9499999999999993</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" s="5">
-        <v>80807</v>
+        <v>398047</v>
       </c>
       <c r="C44" s="6">
-        <v>11862</v>
+        <v>51405</v>
       </c>
       <c r="D44" s="6">
-        <v>62643</v>
+        <v>310602</v>
       </c>
       <c r="E44" s="6">
-        <v>6298</v>
+        <v>36040</v>
       </c>
       <c r="F44" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.79</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="G44" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>79115</v>
+        <v>387263</v>
       </c>
       <c r="H44" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1690</v>
+        <v>10784</v>
       </c>
       <c r="I44" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.09</v>
+        <v>2.71</v>
       </c>
       <c r="J44" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>9085</v>
+        <v>41388</v>
       </c>
       <c r="K44" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.24</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="5">
-        <v>398047</v>
+        <v>50464</v>
       </c>
       <c r="C45" s="6">
-        <v>51405</v>
+        <v>3083</v>
       </c>
       <c r="D45" s="6">
-        <v>310602</v>
+        <v>43890</v>
       </c>
       <c r="E45" s="6">
-        <v>36040</v>
+        <v>3491</v>
       </c>
       <c r="F45" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.0500000000000007</v>
+        <v>6.92</v>
       </c>
       <c r="G45" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>387263</v>
+        <v>49328</v>
       </c>
       <c r="H45" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>10784</v>
+        <v>1129</v>
       </c>
       <c r="I45" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.71</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J45" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>41388</v>
+        <v>4851</v>
       </c>
       <c r="K45" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.4</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="5">
-        <v>50464</v>
+        <v>5756</v>
       </c>
       <c r="C46" s="6">
-        <v>3083</v>
+        <v>354</v>
       </c>
       <c r="D46" s="6">
-        <v>43890</v>
+        <v>4765</v>
       </c>
       <c r="E46" s="6">
-        <v>3491</v>
+        <v>637</v>
       </c>
       <c r="F46" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.92</v>
+        <v>11.07</v>
       </c>
       <c r="G46" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>49328</v>
+        <v>5581</v>
       </c>
       <c r="H46" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1129</v>
+        <v>163</v>
       </c>
       <c r="I46" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.2400000000000002</v>
+        <v>2.83</v>
       </c>
       <c r="J46" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>4851</v>
+        <v>457</v>
       </c>
       <c r="K46" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.61</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="5">
-        <v>5756</v>
+        <v>102460</v>
       </c>
       <c r="C47" s="6">
-        <v>354</v>
+        <v>9911</v>
       </c>
       <c r="D47" s="6">
-        <v>4765</v>
+        <v>80680</v>
       </c>
       <c r="E47" s="6">
-        <v>637</v>
+        <v>11866</v>
       </c>
       <c r="F47" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.07</v>
+        <v>11.58</v>
       </c>
       <c r="G47" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>5581</v>
+        <v>98890</v>
       </c>
       <c r="H47" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>163</v>
+        <v>3570</v>
       </c>
       <c r="I47" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="J47" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>457</v>
+        <v>9792</v>
       </c>
       <c r="K47" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.94</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="5">
-        <v>102460</v>
+        <v>90505</v>
       </c>
       <c r="C48" s="6">
-        <v>9911</v>
+        <v>9132</v>
       </c>
       <c r="D48" s="6">
-        <v>80680</v>
+        <v>71932</v>
       </c>
       <c r="E48" s="6">
-        <v>11866</v>
+        <v>9438</v>
       </c>
       <c r="F48" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.58</v>
+        <v>10.43</v>
       </c>
       <c r="G48" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>98890</v>
+        <v>87484</v>
       </c>
       <c r="H48" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3570</v>
+        <v>3021</v>
       </c>
       <c r="I48" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="J48" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>9792</v>
+        <v>7364</v>
       </c>
       <c r="K48" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.56</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5">
-        <v>90505</v>
+        <v>19079</v>
       </c>
       <c r="C49" s="6">
-        <v>9132</v>
+        <v>197</v>
       </c>
       <c r="D49" s="6">
-        <v>71932</v>
+        <v>17438</v>
       </c>
       <c r="E49" s="6">
-        <v>9438</v>
+        <v>1444</v>
       </c>
       <c r="F49" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>10.43</v>
+        <v>7.57</v>
       </c>
       <c r="G49" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>87484</v>
+        <v>18793</v>
       </c>
       <c r="H49" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>3021</v>
+        <v>284</v>
       </c>
       <c r="I49" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>3.34</v>
+        <v>1.49</v>
       </c>
       <c r="J49" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>7364</v>
+        <v>2259</v>
       </c>
       <c r="K49" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>8.14</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5">
-        <v>19079</v>
+        <v>66615</v>
       </c>
       <c r="C50" s="6">
-        <v>197</v>
+        <v>22308</v>
       </c>
       <c r="D50" s="6">
-        <v>17438</v>
+        <v>39965</v>
       </c>
       <c r="E50" s="6">
-        <v>1444</v>
+        <v>4342</v>
       </c>
       <c r="F50" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.57</v>
+        <v>6.52</v>
       </c>
       <c r="G50" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>18793</v>
+        <v>65134</v>
       </c>
       <c r="H50" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>284</v>
+        <v>1475</v>
       </c>
       <c r="I50" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.49</v>
+        <v>2.21</v>
       </c>
       <c r="J50" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>2259</v>
+        <v>6385</v>
       </c>
       <c r="K50" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>11.84</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5">
-        <v>66615</v>
+        <v>7386</v>
       </c>
       <c r="C51" s="6">
-        <v>22308</v>
+        <v>946</v>
       </c>
       <c r="D51" s="6">
-        <v>39965</v>
+        <v>5918</v>
       </c>
       <c r="E51" s="6">
-        <v>4342</v>
+        <v>522</v>
       </c>
       <c r="F51" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>6.52</v>
+        <v>7.07</v>
       </c>
       <c r="G51" s="6">
         <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>65134</v>
+        <v>7233</v>
       </c>
       <c r="H51" s="6">
         <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>1475</v>
+        <v>147</v>
       </c>
       <c r="I51" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>2.21</v>
+        <v>1.99</v>
       </c>
       <c r="J51" s="6">
         <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>6385</v>
+        <v>700</v>
       </c>
       <c r="K51" s="6">
         <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="5">
-        <v>7386</v>
-      </c>
-      <c r="C52" s="6">
-        <v>946</v>
-      </c>
-      <c r="D52" s="6">
-        <v>5918</v>
-      </c>
-      <c r="E52" s="6">
-        <v>522</v>
-      </c>
-      <c r="F52" s="6">
-        <f>ROUND(100*NatalityData[[#This Row],[Father Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>7.07</v>
-      </c>
-      <c r="G52" s="6">
-        <f>INDEX(Table6[Mother Age &lt; 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>7233</v>
-      </c>
-      <c r="H52" s="6">
-        <f>INDEX(Table6[Mother Age &gt;= 40],MATCH(NatalityData[[#This Row],[State]], Table6[State],0))</f>
-        <v>147</v>
-      </c>
-      <c r="I52" s="6">
-        <f>ROUND(100*NatalityData[[#This Row],[Mother Age &gt;= 40]]/NatalityData[[#This Row],[Total Births]],2)</f>
-        <v>1.99</v>
-      </c>
-      <c r="J52" s="6">
-        <f>INDEX(PrematureTable[Births],MATCH(NatalityData[[#This Row],[State]], PrematureTable[State],0))</f>
-        <v>700</v>
-      </c>
-      <c r="K52" s="6">
-        <f>ROUND(100*NatalityData[[#This Row],[Premature Births]]/NatalityData[[#This Row],[Total Births]],2)</f>
         <v>9.48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F52">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F2:F51">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10228,8 +10198,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I52">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="I2:I51">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10240,8 +10210,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K52">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K2:K51">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10260,7 +10230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10703,7 +10673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17974,7 +17944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19899,7 +19869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -25718,7 +25688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView topLeftCell="E9" workbookViewId="0">
@@ -29166,7 +29136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29609,7 +29579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29639,7 +29609,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
